--- a/testCase/sqszyyadmin/consultManage.xlsx
+++ b/testCase/sqszyyadmin/consultManage.xlsx
@@ -10,13 +10,14 @@
     <sheet name="insertConsultDepartment" sheetId="1" r:id="rId1"/>
     <sheet name="searchConsultDepartment" sheetId="2" r:id="rId2"/>
     <sheet name="updateConsultDepartment" sheetId="3" r:id="rId3"/>
+    <sheet name="deleteConsultDepartment" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>caseName</t>
   </si>
@@ -30,28 +31,52 @@
     <t>departmentName</t>
   </si>
   <si>
-    <t>departmentID</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>新增咨询科室成功</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>睿博一级科室</t>
-  </si>
-  <si>
-    <t>搜索咨询科室成功</t>
-  </si>
-  <si>
-    <t>睿博一级科室（改）</t>
-  </si>
-  <si>
-    <t>睿博一级科（改）</t>
+    <t>doctorID</t>
+  </si>
+  <si>
+    <t>doctorID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增咨询科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博二级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博二级科室（改）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除咨询科室</t>
+  </si>
+  <si>
+    <t>睿博二级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索咨询科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑咨询科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,9 +685,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1008,7 +1030,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1031,34 +1053,34 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+      <c r="A2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>111111</v>
-      </c>
-      <c r="F2" s="2">
-        <v>123456</v>
+        <v>360001</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1073,7 +1095,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1097,18 +1119,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1122,54 +1144,103 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>360004</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="27">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7">
-        <v>111111</v>
-      </c>
-      <c r="F2" s="6">
-        <v>123456</v>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/sqszyyadmin/consultManage.xlsx
+++ b/testCase/sqszyyadmin/consultManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="insertConsultDepartment" sheetId="1" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
